--- a/XLSX/comparisons.xlsx
+++ b/XLSX/comparisons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\RungeKutta\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{274A004D-2DB6-4F06-BB13-5161BB110CB7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C7C6C2-13F1-44B6-8784-E7C822F6BF9C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,16 +18,16 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">yeet!$B$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">yeet!$C$3:$C$1002</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">yeet!$I$3:$I$1002</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">yeet!$J$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">yeet!$J$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">yeet!$K$3:$K$1002</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">yeet!$J$1</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">yeet!$K$3:$K$1002</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">yeet!$B$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">yeet!$C$3:$C$1002</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">yeet!$J$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">yeet!$K$3:$K$1002</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">yeet!$A$3:$A$1002</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">yeet!$B$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">yeet!$A$3:$A$1002</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">yeet!$B$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">yeet!$I$3:$I$1002</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">yeet!$J$1</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">yeet!$B$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">yeet!$C$3:$C$1002</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
 </workbook>
@@ -618,12 +618,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.10</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -639,10 +639,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
+            <a:defRPr sz="1800" baseline="0"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="nl-NL" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="nl-NL" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
@@ -661,7 +661,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{FFB7DE69-C27E-46ED-9895-5D27E7C82C18}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.9</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>FLOAT</cx:v>
             </cx:txData>
           </cx:tx>
@@ -674,7 +674,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{2D748C1E-5955-496E-BF3C-BA6922F344A7}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.11</cx:f>
+              <cx:f>_xlchart.v1.7</cx:f>
               <cx:v>DOUBLE</cx:v>
             </cx:txData>
           </cx:tx>
@@ -702,10 +702,10 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
-                <a:defRPr/>
+                <a:defRPr sz="1200" baseline="0"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="nl-NL" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="nl-NL" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
@@ -721,6 +721,24 @@
         </cx:title>
         <cx:majorGridlines/>
         <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1200" baseline="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
       </cx:axis>
     </cx:plotArea>
     <cx:legend pos="t" align="ctr" overlay="0">
@@ -729,9 +747,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
+            <a:defRPr sz="1200" baseline="0"/>
           </a:pPr>
-          <a:endParaRPr lang="nl-NL" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:endParaRPr lang="nl-NL" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000">
                 <a:lumMod val="65000"/>
@@ -752,12 +770,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -773,10 +791,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
+            <a:defRPr sz="1800" baseline="0"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="nl-NL" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="nl-NL" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
@@ -795,7 +813,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{832576DA-EC36-4CEF-A7DB-38E06B4AB3AE}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>FLOAT</cx:v>
             </cx:txData>
           </cx:tx>
@@ -808,7 +826,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{8CAB7E56-7A5E-4AE7-B559-5749EDAB8739}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>DOUBLE</cx:v>
             </cx:txData>
           </cx:tx>
@@ -836,10 +854,10 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
-                <a:defRPr/>
+                <a:defRPr sz="1200" baseline="0"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="nl-NL" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="nl-NL" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
@@ -855,9 +873,46 @@
         </cx:title>
         <cx:majorGridlines/>
         <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1200" baseline="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
       </cx:axis>
     </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
+    <cx:legend pos="t" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1200" baseline="0"/>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
   </cx:chart>
 </cx:chartSpace>
 </file>
